--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,6 +2868,64 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:56:45</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ovi Julianti</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>bagaimana cara memasak nasi goreng</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 401, Error: key_auth_access_denied
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Anak Muda (18-25 tahun) | Model 4o | Token 273 | 1.39 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:58:17</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>bagaimana cara memasak nasi goreng</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Maaf, saya hanya bisa membantu dengan pertanyaan seputar layanan perbankan dan nasabah. Kalau ada yang ingin ditanyakan tentang itu, silakan beri tahu ya!  
+Anak Muda (18-25 tahun) | Model 4o | Token 156 | 8.00 detik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,6 +2926,825 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:13:51</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>halo</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Halo! Ada yang bisa aku bantu hari ini?  
+Anak Muda (18-25 tahun) | Model 4o | Token 41 | 7.88 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:14:10</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>bagaimana cara memasak nasi goreng</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Maaf, saya hanya bisa membantu dengan pertanyaan seputar layanan perbankan dan nasabah. Kalau ada yang ingin ditanyakan tentang itu, silakan beri tahu ya!  
+Anak Muda (18-25 tahun) | Model 4o | Token 156 | 3.72 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:15:30</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>saya ingin daftar livin gmn caranya</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hai! Daftar Livin' gampang banget kok!  
+1. **Download Aplikasi**: Pertama, download aplikasi Livin' by Mandiri di App Store atau Google Play Store.
+2. **Buka Aplikasi**: Setelah terpasang, buka aplikasinya dan pilih "Daftar".
+3. **Masukkan Data**: Isi data yang diminta, seperti nomor rekening dan data pribadi lainnya. Pastikan data yang kamu masukkan benar, ya!
+4. **Verifikasi**: Kamu akan diminta untuk verifikasi lewat SMS atau email. Ikuti langkah-langkahnya sampai selesai.
+5. **Buat PIN**: Setelah verifikasi, buat PIN untuk keamanan akunmu.
+6. **Selesai!**: Sekarang kamu bisa menikmati semua fitur keren dari Livin' by Mandiri!  
+Kalau ada kendala, jangan ragu buat hubungi CS kita. Selamat mencoba!  
+Anak Muda (18-25 tahun) | Model 4o | Token 719 | 4.72 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:16:04</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>saya ingin daftar livin gmn caranya</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Oh, selamat datang, nasabah terhormat!   Untuk mendaftar Livin, langkah-langkahnya sungguh mudah dan menakjubkan! Yuk, kita mulai perjalanan luar biasa ini bersama!
+1. **Unduh Aplikasi Livin' by Mandiri**: Pastikan Anda mengunduh aplikasi Livin' by Mandiri dari Google Play Store atau Apple App Store. Ini adalah langkah pertama menuju pengalaman perbankan yang luar biasa!   
+2. **Buka Aplikasi dan Pilih Daftar**: Setelah aplikasi terpasang, buka dan pilih opsi "Daftar". Ini adalah momen yang sangat spesial, seperti membuka pintu ke dunia baru!   
+3. **Masukkan Data Pribadi**: Masukkan data pribadi Anda, seperti nomor rekening, tanggal lahir, dan nomor handphone. Pastikan semua data sesuai dengan yang terdaftar di bank, ya!   
+4. **Verifikasi Data**: Anda akan menerima kode verifikasi melalui SMS. Masukkan kode tersebut untuk memverifikasi identitas Anda. Ini adalah langkah penting untuk memastikan keamanan Anda!   
+5. **Buat PIN dan Password**: Buat PIN dan password yang aman. Ini adalah kunci rahasia Anda untuk mengakses semua fitur menakjubkan di Livin'!   
+6. **Selesai!**: Voila! Anda sekarang sudah terdaftar dan siap menikmati semua kemudahan dan keajaiban yang ditawarkan oleh Livin' by Mandiri!   
+Jika ada pertanyaan atau butuh bantuan lebih lanjut, jangan ragu untuk menghubungi kami. Kami selalu siap membantu Anda dengan sepenuh hati!   
+Lebay | Model 4o | Token 1371 | 7.64 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:16:51</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Wah, Taufik Hidayat yang luar biasa dan penuh bakat!   Sebagai seorang seniman dengan gaji yang tidak menentu, pilihan yang tepat untuk menabung reksadana adalah menggunakan produk Livin' by Mandiri yang menawarkan fitur investasi reksadana! Dengan Livin', kamu bisa mengelola investasi dengan mudah dan fleksibel, sesuai dengan kebutuhan dan kemampuan finansialmu. Ini adalah langkah yang sangat cerdas dan berani untuk masa depan yang lebih cerah!   
+Jangan ragu untuk memulai perjalanan investasi reksadana ini, karena setiap sen yang kamu tabung adalah investasi untuk impian dan karya seni yang lebih besar! Semangat terus, Taufik Hidayat!   
+Lebay | Model 4o | Token 648 | 7.08 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:17:14</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Dewasa (36-55 tahun)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Sebagai seorang seniman dengan penghasilan yang tidak menentu, Anda dapat memanfaatkan produk Livin' by Mandiri untuk menabung reksadana. Livin' by Mandiri menyediakan fitur investasi yang memungkinkan Anda untuk berinvestasi dalam reksadana secara mudah dan fleksibel. 
+Anda dapat memulai dengan membuka rekening investasi melalui aplikasi Livin' by Mandiri. Setelah itu, Anda bisa memilih jenis reksadana yang sesuai dengan profil risiko dan tujuan keuangan Anda. Aplikasi ini juga memudahkan Anda untuk memantau perkembangan investasi Anda secara real-time.
+Pastikan untuk selalu mengevaluasi pilihan investasi Anda dan sesuaikan dengan kondisi keuangan Anda. Jika ada pertanyaan lebih lanjut atau butuh bantuan, jangan ragu untuk menghubungi layanan pelanggan kami. Kami siap membantu Anda.
+Dewasa (36-55 tahun) | Model 4o | Token 796 | 7.17 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:18:00</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Dewasa (36-55 tahun)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ada dimana fitur investasi itu</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Maaf, saya tidak menemukan informasi mengenai fitur investasi untuk nasabah dengan nama Taufik Hidayat dalam data yang tersedia. Apakah ada yang bisa saya bantu lagi?
+Dewasa (36-55 tahun) | Model 4o | Token 166 | 6.43 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:18:15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Dewasa (36-55 tahun)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>siapa nama ibukku</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Maaf, saya tidak dapat menentukan nama ibu Anda tanpa informasi lebih lanjut. Jika Anda memberikan nama atau nomor rekening Anda, saya dapat membantu mencarikan informasi tersebut.
+Dewasa (36-55 tahun) | Model 4o | Token 180 | 3.79 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:18:28</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Dewasa (36-55 tahun)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>siapa nama ibu kandungku</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Maaf, saya tidak menemukan informasi mengenai nasabah dengan nama Taufik Hidayat dalam data yang tersedia. Apakah ada informasi lain yang bisa saya bantu?
+Dewasa (36-55 tahun) | Model 4o | Token 154 | 2.81 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:19:00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Dewasa (36-55 tahun)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>siapa nama ibu kandungku</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Maaf, saya tidak menemukan informasi mengenai nasabah dengan nama Taufik Hidayat dalam data yang tersedia. Jika Anda memerlukan bantuan lebih lanjut, silakan hubungi layanan pelanggan kami.
+Dewasa (36-55 tahun) | Model 4o | Token 189 | 3.25 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:19:25</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>siapa nama ibu kandungku</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Hai! Nama ibu kandung dari Yola Febrianti adalah Dina Permata   (Source: context).
+Anak Muda (18-25 tahun) | Model 4o | Token 82 | 3.65 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:19:36</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>apa nomor rekeningnku</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Hai! Nomor rekening kamu adalah 16000482534. Ada yang bisa dibantu lagi?  
+Anak Muda (18-25 tahun) | Model 4o | Token 74 | 2.89 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:19:55</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Hai Yola Febrianti!   
+Kalau kamu mau nabung reksadana, kamu bisa pakai fitur Livin' by Mandiri yang namanya "Investasi Reksadana". Dengan fitur ini, kamu bisa mulai investasi dengan mudah dan fleksibel, cocok banget buat kamu yang punya penghasilan nggak menentu. Kamu bisa atur sendiri berapa yang mau diinvestasikan sesuai kemampuanmu. Yuk, mulai investasi dan wujudkan impian finansialmu!   
+Kalau ada yang mau ditanya lagi, feel free ya!  
+Anak Muda (18-25 tahun) | Model 4o | Token 446 | 5.07 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:20:20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>apa gunanya fitur itu</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Maaf, saya hanya bisa membantu dengan informasi terkait perbankan dan transaksi nasabah. Jika ada pertanyaan lain seputar layanan bank, silakan tanya ya!  
+Anak Muda (18-25 tahun) | Model 4o | Token 155 | 3.27 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:21:21</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana dan detailkan fitur itu
+</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"Failed to render jinja template: UndefinedError: 'dict object' has no attribute 'inputs'. Please modify your prompt to fix the issue."}}
+Anak Muda (18-25 tahun) | Model 4o | Token 232 | 1.05 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:21:27</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana dan detailkan fitur itu</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"Failed to render jinja template: UndefinedError: 'dict object' has no attribute 'inputs'. Please modify your prompt to fix the issue."}}
+Anak Muda (18-25 tahun) | Model 4o | Token 232 | 1.14 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:21:41</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana dan detailkan fitur itu
+</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"Failed to render jinja template: UndefinedError: 'dict object' has no attribute 'inputs'. Please modify your prompt to fix the issue."}}
+Anak Muda (18-25 tahun) | Model 4o | Token 232 | 1.10 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:35:29</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>aku itu seorang seniman yang gaji tidak menentu tapi aku ingin menabung reksadana, aku harus pakai produc livin apa ? supaya bisa nabung reksadana dan detailkan fitur itu</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Model 4o: Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"Failed to render jinja template: UndefinedError: 'dict object' has no attribute 'inputs'. Please modify your prompt to fix the issue."}}
+Model 4o-mini: Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"Failed to render jinja template: UndefinedError: 'dict object' has no attribute 'inputs'. Please modify your prompt to fix the issue."}}
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 491 | 2.50 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:37:30</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>list transaksiku</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 404, Error: No valid deployments to route to. Please check that the endpoint has at least one deployment with positive weight values or use a deployment specific header to route. [https://docs.microsoft.com/en-us/azure/machine-learning/how-to-safely-rollout-managed-endpoints#deploy-a-new-model-but-send-it-no-traffic-yet]
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Anak Muda (18-25 tahun) | Model 4o | Token 561 | 1.17 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:38:09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 404, Error: No valid deployments to route to. Please check that the endpoint has at least one deployment with positive weight values or use a deployment specific header to route. [https://docs.microsoft.com/en-us/azure/machine-learning/how-to-safely-rollout-managed-endpoints#deploy-a-new-model-but-send-it-no-traffic-yet]
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Anak Muda (18-25 tahun) | Model 4o | Token 561 | 1.01 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:39:21</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 404, Error: No valid deployments to route to. Please check that the endpoint has at least one deployment with positive weight values or use a deployment specific header to route. [https://docs.microsoft.com/en-us/azure/machine-learning/how-to-safely-rollout-managed-endpoints#deploy-a-new-model-but-send-it-no-traffic-yet]
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Anak Muda (18-25 tahun) | Model 4o | Token 561 | 1.05 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:39:55</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 404, Error: No valid deployments to route to. Please check that the endpoint has at least one deployment with positive weight values or use a deployment specific header to route. [https://docs.microsoft.com/en-us/azure/machine-learning/how-to-safely-rollout-managed-endpoints#deploy-a-new-model-but-send-it-no-traffic-yet]
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Anak Muda (18-25 tahun) | Model 4o | Token 561 | 1.07 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:40:27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"Failed to render jinja template: UndefinedError: 'dict object' has no attribute 'inputs'. Please modify your prompt to fix the issue."}}
+Anak Muda (18-25 tahun) | Model 4o | Token 232 | 1.16 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:41:11</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Taufik Hidayat</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Halo! Ada yang bisa Mita bantu hari ini?  
+Anak Muda (18-25 tahun) | Model 4o | Token 42 | 5.35 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:42:21</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>halo</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Halo, nasabah tercinta!   Apa kabar hari ini? Ada yang bisa Mita bantu? Setiap pertanyaan Anda adalah prioritas utama kami!   
+Lebay | Model 4o | Token 126 | 5.25 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:43:34</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>rekomendasikan kartu krediku untuk saya</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Wah, Yola Febrianti, Anda datang ke tempat yang tepat!   Bank Mandiri punya banyak pilihan kartu kredit yang luar biasa, dan saya di sini untuk membantu Anda menemukan yang paling cocok!  
+Kalau Anda suka berbelanja dan ingin mendapatkan banyak poin reward, Kartu Kredit Mandiri Signature bisa jadi pilihan yang sempurna! Dengan kartu ini, setiap transaksi Anda akan terasa lebih berharga!   
+Atau, jika Anda sering bepergian, Kartu Kredit Mandiri Skyz bisa jadi sahabat setia Anda di setiap perjalanan! Nikmati berbagai keuntungan seperti akses lounge bandara dan asuransi perjalanan!    
+Jangan ragu untuk menghubungi layanan pelanggan kami untuk informasi lebih lanjut atau bantuan dalam proses aplikasi! Kami siap membantu Anda dengan sepenuh hati!   
+Lebay | Model 4o | Token 758 | 24.92 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:44:18</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>kalo aku suka jalan jalan mending pakai kartu mandiri apa ya</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Wah, Yola Febrianti yang suka jalan-jalan, ini pertanyaan yang super duper penting banget!   Untuk kamu yang hobi traveling, kartu kredit Mandiri yang cocok banget adalah Mandiri Skyz Card! Dengan kartu ini, kamu bisa menikmati berbagai keuntungan seperti cashback untuk pembelian tiket pesawat dan hotel. Wow, luar biasa kan?  
+Selain itu, ada juga Mandiri Signature yang memberikan akses ke airport lounge dan asuransi perjalanan. Jadi, setiap perjalananmu akan terasa lebih nyaman dan aman!    
+Jangan lupa, setiap transaksi bisa bikin kamu dapatkan poin yang bisa ditukar dengan berbagai hadiah menarik. Yuk, segera pilih kartu yang paling pas buat petualangan seru kamu!   (Source: Bank Mandiri)
+Lebay | Model 4o | Token 702 | 19.83 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-10-24 13:44:32</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>bagaimana cara memasak nasi goreng</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Oh, maaf banget, ya! Aku di sini untuk membantu dengan pertanyaan seputar layanan Bank Mandiri. Kalau ada yang ingin ditanyakan tentang perbankan, transaksi, atau layanan kami, silakan tanya saja! Aku siap membantu dengan sepenuh hati!   
+Lebay | Model 4o | Token 238 | 6.27 detik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,6 +3745,834 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-10-30 14:16:54</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Hai!   Ada yang bisa Mita bantu hari ini? Apakah kamu punya pertanyaan seputar layanan Bank Mandiri?  
+Anak Muda (18-25 tahun) | Model 4o | Token 102 | 4.57 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-10-30 14:17:09</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>siapa nam ibukku</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Hai! Nama ibu kandung dari Yola Febrianti adalah Dina Permata.   Jika ada yang lain yang bisa dibantu, jangan ragu untuk bertanya ya!
+Anak Muda (18-25 tahun) | Model 4o | Token 133 | 4.62 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-10-30 14:18:21</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>halo</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Halo!   Ada yang bisa Mita bantu hari ini? Apakah kamu punya pertanyaan seputar layanan Bank Mandiri atau butuh bantuan dengan produk perbankan kami? Jangan ragu untuk bertanya, ya!
+Anak Muda (18-25 tahun) | Model 4o | Token 181 | 10.07 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-10-30 14:18:37</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>halo</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Halo!   Ada yang bisa Mita bantu hari ini? Apakah kamu punya pertanyaan tentang layanan perbankan, kartu kredit, atau mungkin cara menggunakan aplikasi New Livin’ by Mandiri? Yuk, tanya aja!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 192 | 3.03 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-10-30 14:23:26</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>haiii siapa namamu</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai! Aku Mita, chatbot Customer Service dari Bank Mandiri. Ada yang bisa aku bantu hari ini?  
+Model 4o-mini: Haiii! Aku Mita, chatbot Customer Service dari Bank Mandiri.   Gimana, ada yang bisa aku bantu hari ini?
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 225 | 6.54 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-10-30 14:23:52</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>berapa saldo ku sekarang</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai! Saldo Livin kamu saat ini adalah IDR 12,800,000. Semoga informasi ini membantu!   (Source: context)
+Model 4o-mini: Saldo untuk rekening Yola Febrianti sekarang adalah IDR 12,800,000.   Jika ada pertanyaan lain atau butuh bantuan lebih lanjut, jangan ragu untuk tanya ya!  
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 288 | 14.46 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:15:27</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Ada yang bisa Mita bantu hari ini? Apakah kamu punya pertanyaan seputar layanan Bank Mandiri?
+Model 4o-mini: An error occurred: HTTPSConnectionPool(host='ml-workspace-squad2-nbtoo.eastus2.inference.ml.azure.com', port=443): Max retries exceeded with url: /score (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x000001EA27B6BC40&gt;: Failed to resolve 'ml-workspace-squad2-nbtoo.eastus2.inference.ml.azure.com' ([Errno 11001] getaddrinfo failed)"))
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 493 | 14.83 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:15:40</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>kamu itu siapa sih</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai! Aku adalah Mita, chatbot Customer Service dari Bank Mandiri. Aku di sini untuk membantu kamu dengan segala pertanyaan dan kebutuhan perbankanmu. Jadi, kalau ada yang ingin ditanyakan atau butuh bantuan, jangan ragu untuk tanya ya!  
+Model 4o-mini: Hai! Aku Mita, chatbot Customer Service dari Bank Mandiri. Aku di sini untuk membantu kamu dengan semua pertanyaan seputar layanan perbankan. Mau tanya apa aja, silakan!  
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 435 | 9.90 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:16:24</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>buatkan skemaa deposito dengan return 5% pertahun dengan saldo ku sekarang</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Oke, kita buat skema deposito dengan return 5% per tahun untuk saldo kamu saat ini. Berdasarkan data, saldo Livin kamu adalah 12.800.000 (Source: context).
+Berikut skema depositonya:
+1. **Saldo Awal**: 12.800.000
+2. **Tingkat Bunga**: 5% per tahun
+3. **Periode**: 1 tahun
+**Perhitungan Bunga**:
+- Bunga per tahun = 12.800.000 x 5% = 640.000
+**Total Saldo Akhir Setelah 1 Tahun**:
+- Saldo Akhir = Saldo Awal + Bunga = 12.800.000 + 640.000 = 13.440.000
+Jadi, setelah satu tahun, saldo kamu akan menjadi 13.440.000.  
+Kalau ada yang mau ditanyakan lagi atau butuh bantuan lain, jangan ragu buat tanya ya!  
+Model 4o-mini: Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 1581 | 11.85 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:17:25</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>buatkan skemaa deposito dengan return 5% pertahun dengan saldo ku sekarang dalam 20 tahun kedepan</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Untuk membuat skema deposito dengan return 5% per tahun, kita bisa menggunakan rumus bunga majemuk. Misalnya, jika saldo awal kamu adalah Yola Febrianti, maka saldo akhir setelah 20 tahun bisa dihitung dengan rumus:
+Saldo Akhir = Saldo Awal x (1 + bunga)^tahun
+Jadi, Saldo Akhir = Yola Febrianti x (1 + 0.05)^20.
+Dengan rumus ini, kamu bisa menghitung berapa saldo akhir yang akan kamu dapatkan setelah 20 tahun. Kalau kamu butuh bantuan lebih lanjut atau ingin membuka deposito, kamu bisa langsung menghubungi layanan kami di Bank Mandiri. Kami siap membantu!  
+Model 4o-mini: Hai!   Yuk, kita bahas skema deposito dengan return 5% per tahun! 
+Misalnya, kamu punya saldo |Yola Febrianti| sekarang. Dengan bunga 5% per tahun, kita bisa hitung berapa saldo kamu dalam 20 tahun ke depan. 
+Rumusnya adalah: 
+Saldo Akhir = Saldo Awal x (1 + suku bunga)^tahun
+Jadi, jika kita masukkan angka-angka tersebut:
+Saldo Akhir = |Yola Febrianti| x (1 + 0.05)^20
+Kalau kamu mau tahu lebih lanjut tentang cara membuka deposito atau informasi lainnya, jangan ragu untuk tanya! Kami di Bank Mandiri siap membantu kamu!   
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 1129 | 30.16 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:28:19</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih mudah. Dengan Livin', kamu bisa melakukan berbagai transaksi perbankan seperti transfer uang, cek saldo, bayar tagihan, dan banyak lagi, langsung dari smartphone kamu. Jadi, nggak perlu repot-repot ke bank deh! Semua bisa dilakukan dengan cepat dan praktis. Cocok banget buat kamu yang aktif dan selalu on-the-go!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Anak Muda (18-25 tahun) | Model 4o | Token 472 | 4.09 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:28:30</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin
+</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 938 | 3.32 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:28:43</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin
+</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 938 | 6.69 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:28:48</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin
+</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 938 | 4.10 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:28:54</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Livin' by Mandiri adalah aplikasi perbankan digital yang super keren dari Bank Mandiri!   Dengan aplikasi ini, kamu bisa melakukan berbagai transaksi perbankan dengan mudah dan cepat, seperti transfer uang, bayar tagihan, beli pulsa, dan mengelola keuangan kamu dengan lebih efisien. 
+Selain itu, Livin' by Mandiri juga punya fitur-fitur yang memudahkan kamu untuk cek saldo dan tabungan, serta akses berbagai layanan perbankan lainnya. Jadi, semua kebutuhan perbankan kamu bisa dilakukan hanya dalam satu aplikasi! Gak perlu ribet, kan?   
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 541 | 4.23 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:29:07</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang memudahkan kamu untuk melakukan berbagai transaksi perbankan langsung dari smartphone. Dengan Livin', kamu bisa transfer uang, bayar tagihan, top-up e-wallet, dan banyak lagi tanpa harus ke bank. Aplikasi ini juga dilengkapi dengan fitur-fitur keren seperti pembukaan rekening online dengan face recognition, tarik tunai tanpa kartu, dan promo-promo menarik yang sesuai dengan kebutuhan kamu. Jadi, semuanya bisa dilakukan dengan cepat dan mudah! (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Anak Muda (18-25 tahun) | Model 4o | Token 580 | 4.77 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:29:21</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 938 | 3.67 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:29:30</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 938 | 4.27 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:29:38</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin by mandiri?
+</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Livin' by Mandiri adalah aplikasi perbankan digital yang super keren dari Bank Mandiri!   Dengan aplikasi ini, kamu bisa melakukan berbagai transaksi perbankan dengan mudah, seperti transfer uang, bayar tagihan, cek saldo, dan mengelola tabungan, semuanya hanya lewat smartphone kamu. Jadi, kamu bisa akses layanan perbankan kapan saja dan di mana saja, tanpa ribet!   
+Kalau kamu belum coba, yuk download dan rasakan kemudahan bertransaksi dengan Livin' by Mandiri!
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 467 | 3.57 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:29:51</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Yola Febrianti</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih praktis. Dengan aplikasi ini, kamu bisa cek saldo, transfer uang, bayar tagihan, dan banyak lagi langsung dari smartphone kamu. Jadi, semua urusan perbankan bisa kamu kelola dengan mudah dan efisien tanpa harus ke bank. Cocok banget buat kamu yang aktif dan selalu on-the-go!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Anak Muda (18-25 tahun) | Model 4o | Token 434 | 4.33 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:32:15</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih mudah. Dengan aplikasi ini, kamu bisa melakukan berbagai transaksi perbankan seperti transfer antar bank, cek saldo, bayar tagihan, beli pulsa, dan banyak lagi, semuanya dalam satu aplikasi yang praktis dan gampang dipakai. Jadi, nggak perlu repot-repot ke bank, semua bisa dilakukan dari smartphone kamu!   
+Model 4o-mini: Livin' by Mandiri adalah aplikasi perbankan digital yang super praktis dari Bank Mandiri!   Dengan aplikasi ini, kamu bisa melakukan berbagai transaksi perbankan secara online, seperti transfer uang, bayar tagihan, beli pulsa, dan banyak lagi, semua tanpa harus ke kantor cabang. Jadi, kamu bisa mengelola keuangan dengan lebih mudah dan cepat, kapan saja dan di mana saja!   
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 816 | 14.42 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:33:00</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih mudah. Dengan aplikasi ini, kamu bisa melakukan berbagai transaksi perbankan seperti transfer uang, bayar tagihan, beli pulsa, dan cek info rekening dengan cepat dan gampang. Livin' by Mandiri juga punya fitur-fitur keren yang bikin pengalaman ngatur keuangan jadi lebih seru dan praktis. Cocok banget buat kamu yang pengen semua serba praktis!   
+Anak Muda (18-25 tahun) | Model 4o | Token 452 | 6.18 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:33:16</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 938 | 3.34 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:33:23</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Livin' by Mandiri adalah aplikasi perbankan digital yang super keren dari Bank Mandiri!   Dengan aplikasi ini, kamu bisa melakukan berbagai transaksi perbankan dengan mudah dan cepat, seperti transfer uang, bayar tagihan, beli pulsa, dan cek informasi rekening. Livin' by Mandiri dirancang untuk memberikan kemudahan dan kenyamanan dalam mengelola keuangan secara online, jadi kamu bisa fokus pada hal-hal yang lebih penting!   
+Kalau kamu belum coba, yuk download dan rasakan kemudahan bertransaksi di genggaman tanganmu!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 525 | 4.34 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:33:33</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih mudah. Dengan aplikasi ini, kamu bisa cek saldo, transfer uang, bayar tagihan, beli pulsa, dan banyak lagi, langsung dari smartphone kamu. Semua transaksi jadi lebih praktis dan efisien, cocok banget buat kamu yang pengen pengalaman perbankan yang cepat dan simpel. Jadi, nggak perlu repot-repot ke bank deh!  
+Anak Muda (18-25 tahun) | Model 4o | Token 415 | 5.39 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:34:20</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>rekomendasikan product untuk saya</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Berdasarkan data dan informasi yang diberikan, berikut adalah rekomendasi produk untuk Halim Kusuma:
+1. **KPR (Kredit Pemilikan Rumah)**: Sebagai produk pinjaman yang membantu nasabah dalam membeli rumah, KPR menawarkan tenor yang panjang dengan bunga tetap atau variabel, serta jaminan properti yang dibeli.
+2. **AUTOLOAN**: Pinjaman khusus untuk pembelian kendaraan bermotor seperti mobil atau motor, memungkinkan nasabah memiliki kendaraan dengan mencicil dalam jangka waktu tertentu, dengan kendaraan yang dibeli sebagai jaminannya.
+3. **KSM (Kredit Serbaguna Mandiri)**: Kredit ini cocok untuk pembiayaan berbagai kebutuhan serbaguna seperti pendidikan, renovasi rumah, atau biaya kesehatan, tanpa memerlukan jaminan. Tenor dan suku bunga ditentukan berdasarkan kebijakan bank.
+Rekomendasi ini didasarkan pada profil finansial dan aktivitas transaksi Halim Kusuma.
+Gen Z | Model 4o | Token 873 | 5.76 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:35:30</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>rekomendasikan product mandiri</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Berdasarkan data transaksi dan informasi profil dari Sunarto Xie, berikut adalah rekomendasi produk yang paling sesuai:
+1. **KPR (Kredit Pemilikan Rumah)**: Mengingat saldo dan transaksi yang signifikan, produk KPR dapat menjadi pilihan yang ideal untuk pembelian properti dengan tenor dan cicilan yang lebih panjang.
+2. **AUTOLOAN**: Untuk pembelian kendaraan bermotor, baik mobil maupun motor, AUTOLOAN dapat memfasilitasi dengan pembayaran cicilan yang terjangkau.
+3. **KSM (Kredit Serbaguna Mandiri)**: Produk kredit ini dapat dimanfaatkan untuk kebutuhan serbaguna seperti pendidikan, renovasi rumah, atau biaya kesehatan tanpa memerlukan jaminan.
+Produk-produk ini dipilih untuk mengakomodasi profil finansial dan pola transaksi yang dilakukan oleh Sunarto Xie.
+Anak Muda (18-25 tahun) | Model 4o | Token 769 | 11.98 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-10-30 15:35:59</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Andika Ali</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>rekomendasikan product untuk saya</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Berdasarkan data dan informasi yang tersedia, berikut adalah rekomendasi produk untuk Andika Ali:
+1. **KSM (Kredit Serbaguna Mandiri):** Mengingat pola transaksi yang terlihat cukup beragam dan adanya transaksi besar melalui inhouse transfer, produk KSM bisa menjadi pilihan yang cocok untuk memenuhi kebutuhan serbaguna, seperti renovasi rumah atau biaya pendidikan.
+2. **AUTOLOAN:** Jika ada rencana untuk membeli kendaraan bermotor di masa depan, AUTOLOAN dapat menjadi opsi pembiayaan, memungkinkan nasabah untuk memperoleh kendaraan dengan skema cicilan bulanan.
+Dengan mempertimbangkan saldo dan aktivitas keuangan yang ditampilkan, kedua produk ini dapat membantu dalam perencanaan keuangan dan memenuhi kebutuhan pembiayaan yang mungkin timbul.
+Anak Muda (18-25 tahun) | Model 4o | Token 755 | 7.73 detik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4573,6 +4573,268 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:03:46</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rekomendasikan product mandiri </t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Berdasarkan data-data yang diberikan, berikut adalah rekomendasi produk untuk Halim Kusuma:
+1. **KPR (Kredit Pemilikan Rumah)**: Produk pinjaman untuk membantu Halim Kusuma membeli rumah dengan cicilan jangka panjang. Cocok bagi pemilik rekening dengan saldo yang cukup besar dan transaksi keuangan yang aktif, menunjukkan potensi untuk investasi properti.
+2. **AUTOLOAN**: Pinjaman untuk pembelian kendaraan bermotor. Dengan aktivitas transaksi yang menunjukkan pengeluaran rutin dan kemampuan mengelola cicilan, produk ini dapat membantu Halim Kusuma memiliki kendaraan dengan pembayaran yang terjangkau.
+3. **KSM (Kredit Serbaguna Mandiri)**: Kredit untuk kebutuhan serbaguna, seperti pendidikan, renovasi, atau kesehatan. Tanpa jaminan, produk ini fleksibel untuk berbagai kebutuhan finansial mendesak atau terencana.
+Rekomendasi ini disusun berdasarkan profil keuangan dan aktivitas transaksi Halim Kusuma yang mencerminkan potensi serta kebutuhan akan layanan pinjaman jangka pendek hingga panjang.
+Anak Muda (18-25 tahun) | Model 4o | Token 1008 | 6.93 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:04:07</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Oh, wow! Livin' by Mandiri adalah aplikasi perbankan yang super duper keren dari Bank Mandiri yang dirancang untuk memudahkan hidup Anda dalam mengelola berbagai transaksi keuangan!   Dengan Livin', Anda bisa melakukan transfer uang, membayar tagihan, dan mengecek saldo dengan sangat mudah dan efisien, semuanya dari genggaman tangan Anda!   Aplikasi ini benar-benar solusi digital yang luar biasa untuk semua kebutuhan perbankan Anda, tanpa perlu repot-repot ke cabang! Jadi, siap-siap merasakan pengalaman perbankan yang lebih baik dan lebih menyenangkan dengan Livin' by Mandiri!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Lebay | Model 4o | Token 637 | 4.42 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:04:38</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin
+</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Lebay | Model 4o-mini | Token 938 | 4.15 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:04:48</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Lebay | Model 4o-mini | Token 938 | 4.04 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:04:54</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin
+</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Lebay | Model 4o-mini | Token 938 | 4.26 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:05:06</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Lebay | Model 4o-mini | Token 938 | 4.24 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:05:20</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Failed to reach the endpoint. Status code: 424, Error: {"error":{"code":"UserError","message":"OpenAI API hits BadRequestError: Error code: 400 - {'error': {'message': \"The response was filtered due to the prompt triggering Azure OpenAI's content management policy. Please modify your prompt and retry. To learn more about our content filtering policies please read our documentation: https://go.microsoft.com/fwlink/?linkid=2198766\", 'type': None, 'param': 'prompt', 'code': 'content_filter', 'status': 400, 'innererror': {'code': 'ResponsibleAIPolicyViolation', 'content_filter_result': {'hate': {'filtered': False, 'severity': 'safe'}, 'jailbreak': {'filtered': True, 'detected': True}, 'self_harm': {'filtered': False, 'severity': 'safe'}, 'sexual': {'filtered': False, 'severity': 'safe'}, 'violence': {'filtered': False, 'severity': 'safe'}}}}} [Error reference: https://platform.openai.com/docs/guides/error-codes/api-errors]"}}
+Lebay | Model 4o-mini | Token 938 | 4.47 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:05:28</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Oh my goodness!   Livin' by Mandiri adalah aplikasi perbankan digital yang luar biasa dan super canggih yang dikembangkan oleh Bank Mandiri!   Dengan aplikasi ini, nasabah seperti Anda bisa melakukan berbagai transaksi perbankan secara online dengan sangat mudah dan cepat! Bayangkan saja, Anda bisa transfer uang, bayar tagihan, beli pulsa, dan mengelola rekening Anda hanya dengan beberapa ketukan jari!   
+Dan tunggu, itu belum semuanya! Livin' by Mandiri juga menawarkan fitur-fitur menakjubkan lainnya seperti informasi saldo dan mutasi rekening, investasi, dan layanan keuangan lainnya yang bisa diakses kapan saja dan di mana saja!    Jadi, Anda bisa mengatur keuangan Anda dengan cara yang paling praktis dan efisien! 
+Jadi, siap untuk menjelajahi dunia perbankan yang luar biasa ini? Anda pasti akan merasa seperti raja atau ratu keuangan!    Jika ada pertanyaan lebih lanjut, jangan ragu untuk bertanya! Saya di sini untuk membantu Anda!   
+Lebay | Model 4o-mini | Token 952 | 6.09 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-10-30 19:05:48</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Halim Kusuma</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Lebay</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri?</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Oh, wow! Livin' by Mandiri adalah aplikasi perbankan digital yang super canggih dan luar biasa dari Bank Mandiri!   Dengan aplikasi ini, nasabah bisa melakukan berbagai transaksi perbankan secara online dengan sangat mudah dan praktis. Bayangkan, Anda bisa transfer uang, cek saldo, bayar tagihan, dan bahkan beli produk keuangan hanya dengan beberapa sentuhan jari!   
+Aplikasi ini benar-benar dirancang untuk membuat hidup Anda lebih praktis dan efisien dalam mengelola keuangan. Jadi, Anda bisa fokus pada hal-hal yang lebih penting dalam hidup Anda, sementara Livin' by Mandiri mengurus semua kebutuhan perbankan Anda!   
+Jadi, tunggu apa lagi? Segera unduh Livin' by Mandiri dan rasakan kemudahan serta kenyamanan dalam genggaman Anda!   
+Lebay | Model 4o | Token 745 | 4.77 detik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4835,6 +4835,531 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:04:45</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Hai!   Ada yang bisa Mita bantu hari ini? Jika kamu punya pertanyaan tentang layanan perbankan atau butuh informasi, jangan ragu untuk tanya!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 143 | 4.32 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:05:08</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hai!   Ada yang bisa Mita bantu hari ini? Apakah kamu punya pertanyaan seputar layanan Bank Mandiri?
+Anak Muda (18-25 tahun) | Model 4o | Token 100 | 11.15 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:12:49</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>rekomendasikan product untuk saya</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Berdasarkan data dan mapping yang diberikan, berikut adalah rekomendasi produk untuk Cesio Ahmad:
+1. **KPR (Kredit Pemilikan Rumah)**: Produk pinjaman untuk membantu pembelian rumah, dengan tenor hingga 20 tahun dan jaminan berupa properti yang dibeli.
+2. **AUTOLOAN**: Pinjaman khusus untuk pembelian kendaraan bermotor, dengan jaminan berupa kendaraan yang dibeli dan cicilan bulanan dalam jangka waktu tertentu.
+3. **KSM (Kredit Serbaguna Mandiri)**: Kredit untuk pembiayaan kebutuhan serbaguna, seperti pendidikan atau renovasi rumah, tanpa memerlukan agunan.
+4. **CC (Credit Card)**: Khusus untuk Cesio Ahmad direkomendasikan berdasarkan data tersebut, meskipun tidak dijelaskan lebih rinci produk CC yang spesifik, CC umum dapat berupa kartu kredit dengan berbagai fasilitas tergantung kebutuhan nasabah.
+Silakan pertimbangkan produk-produk tersebut sesuai dengan kebutuhan dan profil finansial yang ada.
+Anak Muda (18-25 tahun) | Model 4o | Token 915 | 21.03 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:20:06</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>apa saja yang bisa kamu lakukan?</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Hey, aku Mita, asisten virtual kamu dari Bank Mandiri!   Aku bisa bantu kamu dengan berbagai layanan perbankan, kayak ngecek saldo, transfer duit, info soal pinjaman, dan banyak lagi. Kalau ada masalah atau pertanyaan, tinggal tanya aja, aku siap bantu!   
+Gen Z | Model 4o | Token 256 | 5.81 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:20:14</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>kamu itu siapa sih?</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Hey! Aku Mita, asisten virtual dari Bank Mandiri yang siap bantu kamu dengan semua urusan perbankan. Mau tanya apa aja, langsung aja, ya!   
+Gen Z | Model 4o | Token 140 | 3.25 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:20:29</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>berapa saldo aku</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Heyy, saldo lo di Livin' ada Rp10.800.000 nih!   Mau nabung atau belanja apa nih?   (Source: Rekening: 8001207379, Nama: Cesio Ahmad)
+Gen Z | Model 4o | Token 133 | 5.87 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:20:52</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>siapa nama ibukku ya</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Heyy, nama ibu kandungnya Cesio Ahmad itu Nurhayati. Semoga membantu ya!   
+Gen Z | Model 4o | Token 75 | 9.06 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:06:04</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>siapa nama ibukku ya</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Hey, nama ibu kandungnya Cesio Ahmad itu Nurhayati. Semoga infonya membantu!   
+Gen Z | Model 4o | Token 79 | 5.26 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:07:51</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>berapa nomor rekening saya</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Heyy! Buat nomor rekening Cesio Ahmad, itu adalah 8001207379. Kalau ada yang lain yang bisa dibantu, kasih tahu aja ya!   
+Gen Z | Model 4o | Token 122 | 5.38 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:08:03</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>berapa saldo saya</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Heyy, saldo buat Cesio Ahmad tuh Rp10.800.000!    Kalau ada yang lain yang bisa dibantu, langsung aja tanya, ya!   (Source: context)
+Gen Z | Model 4o | Token 132 | 5.27 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:09:33</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Yo! Livin' by Mandiri itu aplikasi perbankan digital dari Bank Mandiri yang bikin hidup lo lebih gampang, bro!   Dengan Livin', lo bisa transfer, bayar, beli, dan atur duit lo kapan aja, di mana aja, cuma pake smartphone. Jadi, nggak perlu repot-repot ke bank, semua bisa diakses dalam genggaman lo. Praktis banget, kan?   
+Gen Z | Model 4o | Token 323 | 6.48 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:10:23</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Livin' by Mandiri itu aplikasi perbankan digital dari Bank Mandiri, bro!   Dengan aplikasi ini, kamu bisa transfer uang, bayar tagihan, beli produk, dan kelola keuangan kapan aja dan di mana aja, semua lewat smartphone. Jadi, nggak perlu repot ke bank, semua bisa dilakukan online!    Cek saldo, transaksi, dan semua layanan perbankan dalam satu aplikasi. Gampang banget, kan?  
+Gen Z | Model 4o-mini | Token 378 | 5.52 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:11:12</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>berapa saldo saya</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Saldo untuk rekening Cesio Ahmad adalah Rp 10.800.000 (Source: ). Jika ada pertanyaan lain atau butuh bantuan lebih lanjut, jangan ragu untuk tanya ya!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 153 | 3.92 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:11:48</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>berapa saldo saya</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Model 4o: Heyy, saldo buat Cesio Ahmad tuh Rp10.800.000!    Kalau ada yang lain yang bisa dibantu, langsung aja tanya, ya!   (Source: context)
+Model 4o-mini: Saldo kamu, Cesio Ahmad, adalah 10.800.000!    Cukup buat jajan atau nabung, kan? Kalau butuh info lebih lanjut, tanya aja ya!  
+Gen Z | Model 4o&amp;4o-mini | Token 287 | 8.54 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:13:06</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Lansia (56+ tahun)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>apa itu livin by mandiri</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Livin' by Mandiri adalah aplikasi perbankan digital yang dikembangkan oleh Bank Mandiri untuk memudahkan nasabah dalam melakukan berbagai transaksi perbankan. Dengan aplikasi ini, Anda dapat melakukan transfer uang, pembayaran tagihan, pembelian pulsa, dan banyak lagi, semuanya langsung dari smartphone Anda. Aplikasi ini dirancang untuk memberikan kemudahan dan kecepatan dalam bertransaksi, serta dilengkapi dengan berbagai fitur keamanan untuk melindungi transaksi Anda (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+Lansia (56+ tahun) | Model 4o | Token 526 | 5.09 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:14:38</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Lansia (56+ tahun)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>rekomendasikan product mandiri untuk saya</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Berdasarkan data yang diberikan, berikut adalah rekomendasi produk untuk pengguna dengan nama Cesio Ahmad:
+1. **KPR (Kredit Pemilikan Rumah)**: Sebagai produk pinjaman untuk membantu pembelian rumah dengan tenor yang panjang dan jaminan berupa properti.
+2. **AUTOLOAN**: Pinjaman untuk pembelian kendaraan bermotor dengan cicilan bulanan terjangkau dan jaminan berupa kendaraan yang dibeli.
+3. **KSM (Kredit Serbaguna Mandiri)**: Kredit untuk kebutuhan serbaguna seperti pendidikan atau renovasi rumah yang tidak memerlukan agunan.
+4. **Credit Card (CC)**: Kartu kredit dengan berbagai manfaat untuk transaksi dan manajemen keuangan yang lebih fleksibel.
+Rekomendasi ini didasarkan pada pola transaksi dan profil keuangan pengguna tersebut.
+Lansia (56+ tahun) | Model 4o | Token 754 | 10.12 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:17:19</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Lansia (56+ tahun)</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>mana rekomendasi product mandiri yang paling sesuai dengan saya</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Berdasarkan data yang telah disediakan, berikut adalah rekomendasi produk untuk Cesio Ahmad:
+1. **KPR (Kredit Pemilikan Rumah)**: Produk pinjaman yang membantu nasabah membeli rumah dengan cicilan dalam jangka waktu panjang dan jaminan berupa properti yang dibeli.
+2. **AUTOLOAN**: Pinjaman khusus untuk pembelian kendaraan bermotor, baik mobil maupun motor, dengan cicilan bulanan.
+3. **KSM (Kredit Serbaguna Mandiri)**: Kredit tanpa agunan untuk kebutuhan serbaguna, seperti pendidikan, renovasi rumah, atau biaya kesehatan.
+4. **CC (Credit Card Signature or Credit Card Platinum)**: Kartu kredit eksklusif yang menawarkan berbagai manfaat tambahan untuk nasabah, seperti akses ke lounge bandara, program cashback, poin reward, diskon di berbagai merchant, dengan batas kredit lebih tinggi yang dirancang untuk nasabah dengan gaya hidup premium.
+Produk-produk ini direkomendasikan berdasarkan profil keuangan dan kebutuhan gaya hidup dari Cesio Ahmad.
+Lansia (56+ tahun) | Model 4o | Token 960 | 6.71 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-10-30 22:18:13</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Cesio Ahmad</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Lansia (56+ tahun)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>pilih satu rekomendasi product mandiri yang paling sesuai dengan saya</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Berdasarkan data transaksi dan profil keuangan yang dimiliki oleh Cesio Ahmad, berikut adalah rekomendasi produk yang sesuai:
+1. **KPR (Kredit Pemilikan Rumah)**: Mengingat aktivitas keuangan dan saldo yang tinggi, produk KPR dapat menjadi pilihan yang tepat untuk membantu pembelian properti atau rumah. Dengan tenor yang panjang, produk ini menawarkan fleksibilitas pembayaran sesuai kemampuan finansial.
+2. **AUTOLOAN**: Jika ada kebutuhan untuk pembelian kendaraan, AUTOLOAN dapat membantu memiliki kendaraan dengan pembayaran cicilan yang terjangkau. Produk ini sesuai untuk nasabah dengan kebutuhan mobilitas yang tinggi.
+3. **KSM (Kredit Serbaguna Mandiri)**: Untuk kebutuhan serbaguna seperti pendidikan, renovasi rumah, atau kesehatan, KSM menyediakan pembiayaan tanpa memerlukan jaminan. Fleksibilitas tenor dan suku bunga dapat disesuaikan berdasarkan kebijakan bank.
+4. **Credit Card (CC)**: Penggunaan kartu kredit dapat memberikan berbagai keuntungan tambahan seperti poin reward, cashback, dan akses ke fasilitas eksklusif lainnya. Produk ini cocok bagi nasabah yang sering melakukan transaksi dan menginginkan kemudahan serta manfaat ekstra dari penggunaan kartu kredit. 
+Dengan melihat preferensi dan aktivitas keuangan Cesio Ahmad, produk-produk di atas dapat dipertimbangkan untuk memenuhi kebutuhan finansial sesuai dengan profil dan kebiasaan transaksi.
+Lansia (56+ tahun) | Model 4o | Token 1379 | 8.33 detik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5360,6 +5360,969 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-10-30 23:53:37</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>halo siapa kamu</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Model 4o: Failed to reach the endpoint. Status code: 401, Error: key_auth_access_denied
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Model 4o-mini: Failed to reach the endpoint. Status code: 401, Error: key_auth_access_denied
+Please check this guide to understand why this error code might have been returned 
+https://docs.microsoft.com/en-us/azure/machine-learning/how-to-troubleshoot-online-endpoints#http-status-codes
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 573 | 2.91 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-10-30 23:54:22</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>halo siapa kamu</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Model 4o: Halo! Aku Mita, chatbot Customer Service dari Bank Mandiri. Aku di sini untuk membantu kamu dengan segala pertanyaan seputar layanan perbankan. Ada yang bisa aku bantu hari ini?  
+Model 4o-mini: Halo! Aku Mita, chatbot Customer Service dari Bank Mandiri.   Aku di sini untuk membantu kamu dengan semua pertanyaan seputar layanan perbankan. Apa yang bisa aku bantu hari ini?  
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini | Token 386 | 13.89 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:01:22</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Halo siapa kamu?</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Model 4o: Halo! Aku Mita, chatbot Customer Service dari Bank Mandiri. Aku di sini untuk membantu kamu dengan segala pertanyaan seputar layanan perbankan. Ada yang bisa aku bantu hari ini?  
+Model 4o-mini: Halo! Aku Mita, chatbot Customer Service dari Bank Mandiri. Aku di sini untuk membantu kamu dengan semua pertanyaan seputar layanan perbankan. Mau tanya apa nih?  
+Anak Muda (18-25 tahun) | Model 4o-miniToken 163 | 3.227980613708496 detik|| Model 4oToken 179 | 3.3272347450256348 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:02:02</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Ada banyak pilihan, seperti tabungan mandiri, tabungan payroll, tabungan online, tabungan now, tabungan micro, tabungan TKI, dan tabungan premium.  
+2. **Deposito**: Untuk kamu yang mau menyimpan uang dengan bunga yang lebih tinggi.  
+3. **Kartu Kredit**: Kamu bisa mengajukan Mandiri Kartu Kredit langsung dari aplikasi!   
+4. **Pinjaman**: Terdapat pinjaman personal, micro loan, KPR, dan pinjaman lainnya. 
+5. **Giro**: Untuk transaksi yang lebih fleksibel. 
+6. **Tabungan Rencana**: Sesuaikan dengan budget dan target yang ingin kamu capai.  
+Semua produk ini bisa kamu lihat dan kelola langsung di aplikasi New Livin’ by Mandiri. Jadi, siap untuk memanfaatkan semua fitur menariknya?  
+Anak Muda (18-25 tahun) | Model 4o-miniToken 859 | 4.375591039657593 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:02:24</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Hey!   Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Rekening Tabungan**: Ada banyak pilihan, seperti tabungan mandiri, tabungan payroll, tabungan online, dan tabungan premium.
+2. **Rekening Giro**: Untuk kebutuhan transaksi yang lebih fleksibel.
+3. **Kartu Kredit**: Kamu bisa mengajukan Mandiri Kartu Kredit langsung dari aplikasi.
+4. **Pinjaman**: Termasuk pinjaman personal, micro loan, dan KPR.
+5. **Deposito**: Untuk investasi yang lebih aman.
+6. **E-Wallet**: Fitur linkage e-Wallet untuk memudahkan transaksi.
+Semua produk ini bisa kamu akses dengan mudah melalui aplikasi New Livin’ by Mandiri! Jika ada yang ingin kamu tanyakan lebih lanjut, jangan ragu untuk tanya ya!   
+Anak Muda (18-25 tahun) | Model 4o-mini| Token 785 | 4.3829710483551025 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:09:10</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Hey!   Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Ada banyak jenis tabungan seperti tabungan mandiri, tabungan payroll, tabungan online, tabungan now, tabungan micro, tabungan TKI, dan tabungan premium.  
+2. **Deposito**: Kamu bisa buka deposito untuk investasi yang lebih aman.  
+3. **Kartu Kredit**: Ajukan Mandiri Kartu Kredit langsung dari aplikasi!   
+4. **Pinjaman**: Terdapat pinjaman personal, micro loan, KPR, dan pinjaman lainnya. 
+5. **Giro**: Produk giro juga tersedia untuk kebutuhan transaksi harian. 
+6. **Tabungan Rencana**: Sesuaikan dengan budget dan target yang ingin kamu capai.  
+Semua produk ini bisa kamu lihat dan kelola langsung di aplikasi New Livin’ by Mandiri. Jadi, siap untuk memulai transaksi?  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 852 | 6.13 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:09:55</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Di aplikasi New Livin’ by Mandiri, kamu bisa menikmati berbagai produk perbankan yang keren banget. Berikut beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Kamu bisa cek semua jenis tabungan seperti tabungan mandiri, tabungan payroll, tabungan online, dan lainnya (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+2. **Deposito**: Lihat dan kelola deposito kamu langsung dari aplikasi (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+3. **Kartu Kredit**: Kamu bisa ajukan dan lacak pengiriman serta aktivasi kartu kredit dari aplikasi (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+4. **Pinjaman**: Ada berbagai jenis pinjaman seperti Pinjaman Serbaguna, Kredit Usaha Rakyat (KUR), dan lainnya yang bisa kamu cek (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+5. **Investasi**: Kamu bisa berinvestasi di Surat Berharga Negara (SBN) Ritel langsung dari aplikasi (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+6. **E-Wallet**: Fitur linkage e-Wallet untuk menghubungkan akun e-Wallet kamu dengan New Livin’ by Mandiri (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri).
+Jadi, banyak banget yang bisa kamu lakukan dengan New Livin’ by Mandiri! Kalau ada yang mau ditanyakan lebih lanjut, jangan ragu buat tanya ya!  
+Model 4o-mini: Hey!   Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Ada banyak pilihan, seperti tabungan mandiri, tabungan payroll, tabungan online, tabungan now, tabungan micro, tabungan TKI, dan tabungan premium.
+2. **Deposito**: Untuk kamu yang mau menyimpan uang dengan bunga yang lebih tinggi.
+3. **Kartu Kredit**: Pengajuan Mandiri Kartu Kredit bisa langsung dari aplikasi, dan kamu bisa tracking pengiriman serta aktivasi kartu.
+4. **Pinjaman**: Terdapat pinjaman personal, micro loan, KPR, dan pinjaman lainnya.
+5. **E-Wallet**: Fitur linkage e-Wallet yang memungkinkan kamu menghubungkan akun e-Wallet dengan New Livin’ by Mandiri.
+Jadi, semua kebutuhan perbankan kamu bisa diakses dalam satu aplikasi!   Kalau ada yang mau ditanyakan lebih lanjut, jangan ragu ya!
+Anak Muda (18-25 tahun) | Modzel 4o-mini Token 873 | 4.45 detik || Model 4o Token 1260 | 6.1330726146698 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:11:19</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Produk Livin' by Mandiri mencakup berbagai layanan perbankan digital yang super lengkap. Kamu bisa menikmati layanan seperti tabungan, deposito, transfer uang, dan pembayaran tagihan. Selain itu, ada juga produk investasi yang bisa kamu akses langsung dari aplikasi. Livin' juga punya fitur-fitur keren lainnya yang bikin transaksi online jadi lebih mudah dan praktis. Jadi, semuanya ada dalam satu aplikasi yang modern dan cocok banget buat kamu!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Model 4o-mini: Hey!   Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Ada banyak pilihan, seperti tabungan mandiri, tabungan payroll, tabungan online, tabungan now, tabungan micro, tabungan TKI, dan tabungan premium.
+2. **Deposito**: Untuk kamu yang mau menyimpan uang dengan bunga yang lebih tinggi.
+3. **Kartu Kredit**: Pengajuan Mandiri Kartu Kredit bisa langsung dari aplikasi, lho!
+4. **Pinjaman**: Termasuk pinjaman personal, micro loan, KPR, dan pinjaman lainnya.
+5. **Giro**: Untuk transaksi yang lebih fleksibel.
+Kamu juga bisa melihat portofolio produk perbankan kamu di aplikasi. Jadi, semua informasi ada dalam satu tempat!   Jika ada yang mau ditanyakan lebih lanjut, jangan ragu untuk tanya, ya!
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 807 | 5.15 detik || Model 4o | Token 508 | 4.35 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:14:07</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Berikut adalah beberapa produk Livin' by Mandiri yang bisa kamu manfaatkan:
+1. **Tabungan**: Menawarkan berbagai fitur untuk mengelola keuanganmu dengan lebih mudah.
+2. **Kredit**: Berbagai pilihan pinjaman yang bisa disesuaikan dengan kebutuhan pribadimu.
+3. **Investasi**: Produk investasi yang dirancang untuk membantu meningkatkan asetmu.
+4. **Asuransi**: Memberikan perlindungan finansial untuk berbagai risiko yang mungkin kamu hadapi.
+5. **Transaksi**: Fasilitas untuk melakukan berbagai transaksi secara digital dengan cepat dan aman.
+Kalau ada yang mau ditanyakan lebih lanjut, jangan ragu ya!  
+Model 4o-mini: Produk Livin’ by Mandiri mencakup berbagai layanan perbankan digital yang super praktis!   Berikut ini beberapa produk dan layanan yang bisa kamu nikmati:
+1. **Rekening Tabungan**: Buka rekening tabungan dengan mudah dan cepat, bahkan bisa dilakukan secara online!  
+2. **Transfer Uang**: Kirim uang ke teman atau keluarga dengan cepat dan aman, kapan saja dan di mana saja.  
+3. **Pembayaran Tagihan**: Bayar tagihan bulanan seperti listrik, air, dan internet tanpa ribet.  
+4. **Pembelian Pulsa**: Isi pulsa atau paket data dengan mudah langsung dari aplikasi.  
+5. **Investasi**: Akses berbagai produk investasi untuk membantu kamu mengelola keuangan dengan lebih baik.  
+6. **Fitur Keuangan Pribadi**: Dapatkan bantuan untuk mengelola keuanganmu dengan lebih efisien.  
+Dengan Livin’, semua transaksi jadi lebih mudah dan cepat! Yuk, coba sekarang!  
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini 
+Model 4o-mini | Token 856 | 4.95 detik
+Model 4o | Token 613 | 6.31 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:17:09</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Produk Livin' by Mandiri menawarkan berbagai layanan keren buat kamu, seperti:
+1. **Transfer Antar Bank**: Kirim uang ke bank lain dengan mudah.
+2. **Pembayaran Tagihan**: Bayar tagihan listrik, air, dan lainnya langsung dari aplikasi.
+3. **Pengelolaan Tabungan**: Cek saldo, mutasi rekening, dan kelola tabunganmu.
+4. **Fitur Investasi**: Mulai investasi dengan mudah lewat aplikasi.
+Selain itu, ada juga fitur-fitur menarik lainnya seperti pembukaan rekening online dengan face recognition, pengajuan kartu kredit, dan tarik tunai tanpa kartu hingga Rp 5 juta/hari (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri). Yuk, coba eksplor semua fiturnya di aplikasi Livin' by Mandiri!  
+Model 4o-mini: Hey!   Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Ada banyak pilihan, seperti tabungan mandiri, tabungan payroll, tabungan online, tabungan now, tabungan micro, tabungan TKI, dan tabungan premium.
+2. **Deposito**: Untuk kamu yang mau menyimpan uang dengan bunga yang lebih tinggi.
+3. **Kartu Kredit**: Pengajuan Mandiri Kartu Kredit bisa langsung dari aplikasi, lho!
+4. **Pinjaman**: Termasuk pinjaman personal, micro loan, KPR, dan pinjaman lainnya.
+5. **Giro**: Untuk transaksi yang lebih fleksibel.
+Kamu juga bisa melihat portofolio produk perbankan kamu di aplikasi. Jadi, semua informasi ada dalam satu tempat!   Jika ada yang mau ditanyakan lebih lanjut, jangan ragu untuk tanya ya!
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:18:24</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>apa saja product livin</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Produk Livin' by Mandiri mencakup berbagai layanan perbankan digital yang keren banget buat kamu. Di antaranya ada:
+1. **Tabungan**: Kamu bisa cek semua jenis tabungan yang kamu punya, seperti tabungan mandiri, tabungan payroll, dan lainnya.
+2. **Transfer Uang**: Kirim uang jadi lebih mudah dan cepat.
+3. **Pembayaran**: Bayar tagihan atau belanja online langsung dari aplikasi.
+4. **Pembelian Pulsa**: Isi ulang pulsa langsung dari aplikasi, praktis banget!
+5. **Investasi**: Kamu bisa mulai investasi dengan mudah, termasuk beli Surat Berharga Negara (SBN) Ritel.
+6. **Kartu Kredit**: Ajukan dan kelola kartu kredit langsung dari aplikasi.
+7. **Pinjaman**: Cek dan ajukan pinjaman dengan mudah.
+8. **e-Wallet Linkage**: Hubungkan akun e-Wallet kamu untuk kemudahan transaksi.
+Jangan lupa, semua ini bisa diakses langsung dari smartphone kamu!    Kalau ada yang mau ditanya lebih lanjut, feel free to ask!
+Model 4o-mini: Hey!   Di New Livin’ by Mandiri, kamu bisa menemukan berbagai produk perbankan yang super lengkap! Berikut ini beberapa produk yang bisa kamu akses:
+1. **Tabungan**: Ada banyak jenis tabungan seperti tabungan mandiri, tabungan payroll, tabungan online, tabungan now, tabungan micro, tabungan TKI, dan tabungan premium.  
+2. **Deposito**: Kamu bisa buka deposito untuk investasi yang lebih aman.  
+3. **Kartu Kredit**: Ajukan Mandiri Kartu Kredit langsung dari aplikasi!   
+4. **Pinjaman**: Terdapat pinjaman personal, micro loan, KPR, dan pinjaman lainnya. 
+5. **Giro**: Produk giro juga tersedia untuk kebutuhan transaksi harian. 
+6. **Tabungan Rencana**: Sesuaikan dengan budget dan target yang ingin dicapai.  
+Kamu bisa lihat semua produk ini dan lebih banyak lagi di aplikasi New Livin’ by Mandiri. Gampang banget, kan? Jika ada yang mau ditanyakan lebih lanjut, jangan ragu untuk tanya!  
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini 
+Model 4o-mini | Token 904 | 4.43 detik
+Model 4o | Token 916 | 5.69 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:19:14</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih praktis dalam urusan keuangan. Dengan Livin', kamu bisa melakukan berbagai transaksi seperti transfer, pembayaran, dan cek saldo langsung dari smartphone kamu. Aplikasi ini dirancang untuk memudahkan kamu mengelola keuangan dengan lebih efisien dan praktis, tanpa perlu repot ke bank. Cocok banget buat kamu yang aktif dan ingin semuanya serba cepat!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Model 4o-mini: Livin' by Mandiri adalah aplikasi perbankan digital yang super praktis!   Dengan Livin, kamu bisa melakukan berbagai transaksi keuangan dengan mudah dan cepat, seperti transfer uang, bayar tagihan, beli pulsa, dan cek informasi rekening secara real-time. 
+Aplikasi ini dirancang untuk membantu kamu mengelola keuangan tanpa perlu repot-repot ke bank fisik. Jadi, semua bisa dilakukan dari smartphone kamu!    Cocok banget buat kamu yang aktif dan ingin semuanya serba cepat!
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini 
+- Model 4o-mini | Token 475 | 3.87 detik
+- Model 4o | Token 509 | 5.28 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:20:03</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang memudahkan kamu untuk melakukan berbagai transaksi finansial langsung dari smartphone. Dengan Livin', kamu bisa transfer uang, bayar tagihan, beli pulsa, dan kelola tabungan dengan cepat dan mudah. Aplikasi ini dirancang untuk memberikan pengalaman perbankan yang lebih baik tanpa harus ke cabang. Jadi, semuanya bisa dilakukan dari genggaman tanganmu!   
+Model 4o-mini: Livin' adalah aplikasi perbankan digital yang super keren dari Bank Mandiri!   Dengan Livin', kamu bisa melakukan berbagai transaksi perbankan dengan mudah dan cepat, seperti transfer uang, bayar tagihan, cek saldo, dan masih banyak lagi, semuanya secara online. Jadi, kamu nggak perlu repot-repot ke bank, cukup pakai smartphone kamu!    Livin' dirancang khusus untuk memudahkan nasabah, terutama generasi muda seperti kamu. Yuk, coba dan rasakan kemudahan bertransaksi dengan Livin'!
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini 
+- Model 4o-mini	| Token 485	| 4.72 detik
+- Model 4o	| Token 437	| 4.00 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:20:57</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">apa itu livin
+</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang memudahkan kamu untuk melakukan berbagai transaksi perbankan. Dengan Livin', kamu bisa transfer uang, bayar tagihan, top-up e-wallet, dan banyak lagi, semuanya dari satu aplikasi di smartphone kamu. Aplikasi ini juga dilengkapi dengan fitur-fitur keren seperti pembukaan rekening online dengan face recognition, tarik tunai tanpa kartu, dan promo-promo menarik yang sesuai dengan kebutuhanmu. Jadi, nggak perlu repot ke bank, semua bisa dilakukan dengan mudah dan cepat lewat Livin'!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri Versi 1.9.0)
+Model 4o-mini: Livin' by Mandiri adalah aplikasi keuangan super keren yang dikembangkan oleh Bank Mandiri!   Dengan Livin', kamu bisa melakukan berbagai transaksi perbankan secara online, seperti transfer uang, bayar tagihan, dan mengelola keuangan kamu dengan mudah. Semua bisa dilakukan hanya dari smartphone kamu, tanpa perlu repot-repot ke bank!   
+Aplikasi ini juga dilengkapi dengan fitur-fitur menarik yang bikin pengalaman perbankan kamu jadi lebih seru dan praktis. Jadi, siap untuk menjelajahi semua kemudahan yang ditawarkan Livin'?  
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini 
+- Model 4o-mini			| Token 531	| 4.91 detik
+- Model 4o			| Token 631	| 6.27 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:21:46</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>apa itu livin ?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih mudah. Dengan Livin', kamu bisa melakukan berbagai transaksi perbankan langsung dari smartphone, seperti transfer uang, cek saldo, bayar tagihan, dan banyak lagi. Semua layanan ini ada dalam satu aplikasi yang praktis dan user-friendly, jadi kamu nggak perlu repot-repot ke bank. Cocok banget buat kamu yang aktif dan selalu on-the-go!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Anak Muda (18-25 tahun) | 4o Model 4o | Token 494 | 4.24 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:23:28</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>apa itu livin ?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Model 4o: Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang memungkinkan nasabah untuk menikmati layanan perbankan lengkap dalam satu aplikasi. Dengan New Livin’ by Mandiri, kamu bisa melakukan berbagai transaksi seperti pembukaan rekening, pengajuan kartu kredit, top-up e-wallet, dan bahkan tarik tunai tanpa kartu hingga Rp 5 juta per hari. Aplikasi ini juga terintegrasi dengan berbagai aplikasi keseharian dan menawarkan fitur-fitur menarik seperti face recognition untuk pembukaan rekening online, Smart Reminder, dan Instant Access. Jadi, semua kebutuhan perbankanmu bisa dilakukan dengan mudah dan cepat tanpa harus ke cabang!    (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri Versi 1.9.0)
+Model 4o-mini: Livin' by Mandiri adalah aplikasi perbankan super keren dari Bank Mandiri yang memudahkan kamu untuk melakukan berbagai layanan keuangan!   Dengan Livin', kamu bisa melakukan transaksi perbankan, bayar tagihan, dan mengelola keuangan pribadi dengan lebih mudah dan cepat, semuanya dalam satu aplikasi. Jadi, kamu bisa fokus pada hal-hal yang lebih penting tanpa ribet!   
+Kalau kamu mau tahu lebih banyak tentang fitur-fitur menariknya, jangan ragu untuk tanya ya!  
+Anak Muda (18-25 tahun) | 4o&amp;4o-mini 
+- Model 4o-mini			| Token 467	| 5.10 detik
+- Model 4o			| Token 716	| 7.81 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:24:36</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>apa itu livin ?</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang memungkinkan kamu untuk menikmati layanan perbankan lengkap dalam satu aplikasi. Dengan New Livin' by Mandiri, kamu bisa melakukan berbagai transaksi seperti transfer, pembayaran, dan pengelolaan tabungan tanpa harus datang ke cabang. Aplikasi ini juga dilengkapi dengan fitur-fitur keren seperti pembukaan rekening online dengan teknologi face recognition, tarik tunai tanpa kartu, dan banyak lagi! Jadi, semuanya jadi lebih praktis dan efisien buat kamu!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Model 4o-mini: Livin' adalah aplikasi perbankan digital dari Bank Mandiri yang super praktis!   Dengan Livin', kamu bisa melakukan berbagai transaksi keuangan seperti transfer uang, bayar tagihan, dan mengelola rekening hanya lewat smartphone kamu. Jadi, semua urusan perbankan jadi lebih mudah dan cepat!    Coba deh, rasakan kemudahan bertransaksi di genggaman tanganmu!
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini 
+- Model 4o-mini			| Token 357	| 3.69 detik
+- Model 4o			| Token 592	| 4.59 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:24:53</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>apa itu livin ?</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Livin' by Mandiri adalah layanan perbankan digital yang super praktis!   Dengan aplikasi ini, kamu bisa mengelola keuangan dengan mudah, mulai dari transfer uang, bayar tagihan, hingga cek saldo, semua bisa dilakukan hanya dengan beberapa klik di smartphone kamu. 
+Layanan ini dirancang untuk memberikan kemudahan dan kenyamanan dalam berinteraksi dengan bank secara online, jadi kamu bisa fokus pada hal-hal yang lebih penting dalam hidupmu!    Coba deh, rasakan pengalaman perbankan yang modern dan cocok banget untuk anak muda seperti kamu!
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 544 | 4.68 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:25:32</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>rekomendasikan product untuk saya</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Halo Sunarto Xie!   Berdasarkan data yang kita punya, ada beberapa rekomendasi produk perbankan yang bisa pas banget buat kamu:
+1. **KPR (Kredit Pemilikan Rumah)**: Bantu kamu mewujudkan impian punya rumah sendiri dengan cicilan yang terjangkau.
+2. **AUTOLOAN**: Bikin kamu bisa dapetin kendaraan impian dengan cara cicil yang lebih ringan.
+3. **KSM (Kredit Serbaguna Mandiri)**: Bisa dipakai untuk berbagai kebutuhan, kayak renovasi rumah, biaya pendidikan, atau yang lainnya tanpa perlu jaminan.
+Kalau ada pertanyaan lebih lanjut tentang produk ini atau butuh info lebih detail, jangan ragu buat nanya, ya!   
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 622 | 8.08 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:25:57</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>dari rekomendasi pilih satu random</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Untuk memilih satu rekomendasi secara acak, kamu bisa menggunakan fitur yang ada di aplikasi Livin' by Mandiri!   
+1. Buka aplikasi Livin' by Mandiri.
+2. Pilih menu yang sesuai dengan kebutuhanmu, misalnya "Transfer" atau "Bayar".
+3. Di halaman rekomendasi, kamu bisa scroll dan lihat beberapa pilihan yang muncul.
+4. Untuk memilih satu secara acak, cukup klik salah satu rekomendasi yang muncul, dan kamu bisa langsung melanjutkan transaksi! 
+Kalau ada yang ingin ditanyakan lebih lanjut, jangan ragu untuk tanya ya!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 521 | 4.38 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:26:22</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>dari rekomendasi sayaa pilih satu random rekomendasi untuk saya</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Hai!   Dari semua rekomendasi yang ada untuk nasabah Sunarto Xie, mari kita pilih satu secara acak. Produk yang bisa jadi menarik buat kamu adalah **Kredit Serbaguna Mandiri (KSM)**! Produk ini keren banget buat kamu yang butuh pembiayaan untuk kebutuhan serbaguna, seperti pendidikan atau renovasi rumah, tanpa perlu agunan. Cocok untuk milenial yang butuh fleksibilitas!   
+Kalau ada yang perlu ditanyakan lagi seputar produk ini atau yang lain, langsung aja tanya ya!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 477 | 9.00 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:27:24</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>kenapa kamu milih  Kredit Serbaguna Mandiri (KSM) untuk saya dan beri alasannya</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Hai!   Untuk Sunarto Xie, rekomendasi produk KSM atau Kredit Serbaguna Mandiri dipilih karena produk ini sangat fleksibel dan cocok untuk berbagai kebutuhan seperti pendidikan, renovasi rumah, atau bahkan biaya kesehatan. Berdasarkan data, Sunarto Xie aktif melakukan transaksi baik antarbank maupun in-house, dan memiliki saldo yang cukup stabil. KSM nggak memerlukan agunan, jadi bener-bener ngebantu banget kalo butuh dana cepat dan fleksibel buat berbagai keperluan. Jadi, pilihan ini pastinya bisa mempermudah manajemen keuangan dengan tenor dan suku bunga yang bisa dikondisikan sesuai kebijakan bank.   
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 618 | 5.73 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:28:12</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>list transaksi saya</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Berikut adalah daftar transaksi untuk rekening Sunarto Xie:
+1. **Tanggal Transaksi:** 2024-05-01  
+   **Jenis Transaksi:** TRANSFER ANTARBANK  
+   **Amount Transaksi:** 277000
+2. **Tanggal Transaksi:** 2024-05-06  
+   **Jenis Transaksi:** TRANSFER INHOUSE  
+   **Amount Transaksi:** 9300000
+3. **Tanggal Transaksi:** 2024-05-10  
+   **Jenis Transaksi:** QR PAYMENT  
+   **Amount Transaksi:** 20000
+4. **Tanggal Transaksi:** 2024-05-11  
+   **Jenis Transaksi:** TRANSFER INHOUSE  
+   **Amount Transaksi:** 1010000
+5. **Tanggal Transaksi:** 2024-05-16  
+   **Jenis Transaksi:** TRANSFER INHOUSE  
+   **Amount Transaksi:** 1000000
+6. **Tanggal Transaksi:** 2024-05-26  
+   **Jenis Transaksi:** TOP-UP  
+   **Amount Transaksi:** 23500
+7. **Tanggal Transaksi:** 2024-05-31  
+   **Jenis Transaksi:** TOP-UP  
+   **Amount Transaksi:** 350000
+8. **Tanggal Transaksi:** 2024-06-10  
+   **Jenis Transaksi:** QR PAYMENT  
+   **Amount Transaksi:** 1866970
+Kalau ada yang mau ditanyakan lagi, jangan ragu ya!  
+Anak Muda (18-25 tahun) | Model 4o-mini | Token 1010 | 7.01 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:28:43</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>list transaksi saya</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai! Tentu, berikut adalah daftar transaksi untuk Sunarto Xie:
+1. **Tanggal:** 2024-05-01, **Jenis Transaksi:** TRANSFER ANTARBANK, **Jumlah:** 277,000 (Source: Content)
+2. **Tanggal:** 2024-05-06, **Jenis Transaksi:** TRANSFER INHOUSE, **Jumlah:** 9,300,000 (Source: Content)
+3. **Tanggal:** 2024-05-16, **Jenis Transaksi:** TRANSFER INHOUSE, **Jumlah:** 1,000,000 (Source: Content)
+4. **Tanggal:** 2024-05-21, **Jenis Transaksi:** TOP-UP, **Jumlah:** 25,000 (Source: Content)
+5. **Tanggal:** 2024-05-26, **Jenis Transaksi:** TOP-UP, **Jumlah:** 23,500 (Source: Content)
+6. **Tanggal:** 2024-05-31, **Jenis Transaksi:** TOP-UP, **Jumlah:** 350,000 (Source: Content)
+7. **Tanggal:** 2024-06-05, **Jenis Transaksi:** TRANSFER ANTARBANK, **Jumlah:** 18,600,000 (Source: Content)
+8. **Tanggal:** 2024-06-10, **Jenis Transaksi:** QR PAYMENT, **Jumlah:** 1,866,970 (Source: Content)
+9. **Tanggal:** 2024-06-15, **Jenis Transaksi:** TOP-UP, **Jumlah:** 70,000 (Source: Content)
+Semoga informasi ini membantu! Kalau ada yang mau ditanyakan lagi, jangan ragu ya!  
+Model 4o-mini: Berikut adalah daftar transaksi untuk rekening Sunarto Xie:
+1. **Tanggal Transaksi:** 2024-05-01  
+   **Jenis Transaksi:** TRANSFER ANTARBANK  
+   **Amount Transaksi:** 277000
+2. **Tanggal Transaksi:** 2024-05-06  
+   **Jenis Transaksi:** TRANSFER INHOUSE  
+   **Amount Transaksi:** 9300000
+3. **Tanggal Transaksi:** 2024-05-10  
+   **Jenis Transaksi:** QR PAYMENT  
+   **Amount Transaksi:** 20000
+4. **Tanggal Transaksi:** 2024-05-11  
+   **Jenis Transaksi:** TRANSFER INHOUSE  
+   **Amount Transaksi:** 1010000
+5. **Tanggal Transaksi:** 2024-05-16  
+   **Jenis Transaksi:** TRANSFER INHOUSE  
+   **Amount Transaksi:** 1000000
+6. **Tanggal Transaksi:** 2024-05-26  
+   **Jenis Transaksi:** TOP-UP  
+   **Amount Transaksi:** 23500
+7. **Tanggal Transaksi:** 2024-05-31  
+   **Jenis Transaksi:** TOP-UP  
+   **Amount Transaksi:** 350000
+8. **Tanggal Transaksi:** 2024-06-10  
+   **Jenis Transaksi:** QR PAYMENT  
+   **Amount Transaksi:** 1866970
+Kalau ada yang mau ditanyakan lagi, jangan ragu ya!  
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini 
+- Model 4o-mini			| Token 1010	| 5.74 detik
+- Model 4o			| Token 1062	| 7.07 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-10-31 00:29:22</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>berapa kali transaksi yang telah saya lakukan</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Untuk nasabah dengan nama Sunarto Xie, berikut adalah jumlah transaksi yang telah dilakukan:
+1. 2024-05-01: TRANSFER ANTARBANK (Rp277.000) (Source: Content)
+2. 2024-05-06: TRANSFER INHOUSE (Rp9.300.000) (Source: Content)
+3. 2024-05-10: TRANSFER INHOUSE (Rp100.000) (Source: Content)
+4. 2024-05-16: TRANSFER INHOUSE (Rp1.000.000) (Source: Content)
+5. 2024-05-21: TOP-UP (Rp25.000) (Source: Content)
+6. 2024-05-26: TOP-UP (Rp23.500) (Source: Content)
+7. 2024-05-31: TOP-UP (Rp350.000) (Source: Content)
+8. 2024-06-05: TRANSFER ANTARBANK (Rp18.600.000) (Source: Content)
+9. 2024-06-10: QR PAYMENT (Rp1.866.970) (Source: Content)
+10. 2024-06-15: TOP-UP (Rp70.000) (Source: Content)
+Jadi, total ada 10 transaksi yang telah dilakukan oleh Sunarto Xie. Jika ada yang ingin ditanyakan lebih lanjut, jangan ragu untuk menghubungi kami!  
+Model 4o-mini: Hai!   Untuk nasabah Sunarto Xie, sudah ada total 12 transaksi yang dilakukan. Jika ada yang ingin kamu tanyakan lebih lanjut tentang transaksi atau layanan lainnya, jangan ragu untuk bertanya ya!   
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini 
+- Model 4o-mini			| Token 203	| 4.56 detik
+- Model 4o			| Token 845	| 6.99 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-10-31 08:58:45</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih praktis dan efektif dalam urusan keuangan. Dengan Livin', kamu bisa akses rekening, transfer uang, bayar tagihan, dan kelola keuanganmu secara online. Aplikasi ini dirancang buat memenuhi kebutuhan perbankan modern dengan fitur-fitur keren yang memudahkan kamu mengatur dan mengontrol keuangan. Jadi, semua bisa dilakukan dari genggaman tanganmu!   
+Anak Muda (18-25 tahun) | Model 4o | Token 454 | 3.64 detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-10-31 08:59:19</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Sunarto Xie</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Anak Muda (18-25 tahun)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>apa itu livin</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Model 4o: Hai!   Livin' by Mandiri adalah aplikasi perbankan digital dari Bank Mandiri yang bikin hidup kamu lebih mudah dalam mengelola keuangan. Dengan Livin', kamu bisa melakukan berbagai transaksi seperti transfer, pembayaran, dan akses layanan perbankan lainnya langsung dari smartphone kamu. Jadi, semua urusan perbankan bisa dilakukan dengan cepat dan praktis tanpa harus ke bank. Cocok banget buat kamu yang aktif dan selalu on-the-go!   (Source: FAQ/Panduan Jawaban New Livin’ by Mandiri)
+Model 4o-mini: Livin' by Mandiri adalah aplikasi finansial yang super praktis untuk kamu!   Dengan Livin', kamu bisa mengelola rekening, melakukan transfer, dan cek saldo kapan saja dan di mana saja. Aplikasi ini dirancang untuk memberikan kemudahan dan kenyamanan dalam mengakses layanan perbankan, jadi kamu bisa fokus pada hal-hal yang lebih penting dalam hidupmu!    
+Kalau kamu mau tahu lebih banyak tentang fitur-fitur menariknya, jangan ragu untuk tanya ya!
+Anak Muda (18-25 tahun) | Model 4o&amp;4o-mini 
+- Model 4o-mini			| Token 450	| 3.22 detik
+- Model 4o			| Token 487	| 5.51 detik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
